--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR322345.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR322345.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDBA4CF-1D1D-4BF9-94CA-A62C21D56E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34922FA1-D94A-4E95-932E-0FE177F0CF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{9708E262-959E-47EA-B972-E53F36E11A88}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
-  <si>
-    <t>IT Support</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>EUR</t>
   </si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>Various paper supplies</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF81F87-4DB7-4514-9941-7ACB53F0E9C5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,232 +412,301 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>350446</v>
+        <v>582270</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>216810</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42756</v>
       </c>
       <c r="D1">
-        <v>43362</v>
+        <v>179882</v>
       </c>
       <c r="E1">
-        <v>260172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42737</v>
+        <v>35976.400000000001</v>
+      </c>
+      <c r="F1">
+        <v>215858</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>427182</v>
+        <v>457941</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42737</v>
+      </c>
+      <c r="D2">
+        <v>219802</v>
+      </c>
+      <c r="E2">
+        <v>43960.4</v>
+      </c>
+      <c r="F2">
+        <v>263762</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>51372</v>
-      </c>
-      <c r="D2">
-        <v>10274.4</v>
-      </c>
-      <c r="E2">
-        <v>61646.400000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42763</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>891488</v>
+        <v>855003</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>273809</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42788</v>
       </c>
       <c r="D3">
-        <v>54761.8</v>
+        <v>150295</v>
       </c>
       <c r="E3">
-        <v>328571</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42781</v>
+        <v>30059</v>
+      </c>
+      <c r="F3">
+        <v>180354</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>212804</v>
+        <v>720651</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>77461</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42792</v>
       </c>
       <c r="D4">
-        <v>15492.2</v>
+        <v>51263</v>
       </c>
       <c r="E4">
-        <v>92953.2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42842</v>
+        <v>10252.6</v>
+      </c>
+      <c r="F4">
+        <v>61515.6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>276143</v>
+        <v>240417</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42869</v>
+      </c>
+      <c r="D5">
+        <v>235855</v>
+      </c>
+      <c r="E5">
+        <v>47171</v>
+      </c>
+      <c r="F5">
+        <v>283026</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C5">
-        <v>57927</v>
-      </c>
-      <c r="D5">
-        <v>11585.4</v>
-      </c>
-      <c r="E5">
-        <v>69512.399999999994</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42882</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>612107</v>
+        <v>841715</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>33625</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42941</v>
       </c>
       <c r="D6">
-        <v>6725</v>
+        <v>152422</v>
       </c>
       <c r="E6">
-        <v>40350</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42931</v>
+        <v>30484.400000000001</v>
+      </c>
+      <c r="F6">
+        <v>182906</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>336713</v>
+        <v>120638</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>97517</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42948</v>
       </c>
       <c r="D7">
-        <v>19503.400000000001</v>
+        <v>268078</v>
       </c>
       <c r="E7">
-        <v>117020</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>42934</v>
+        <v>53615.6</v>
+      </c>
+      <c r="F7">
+        <v>321694</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>340826</v>
+        <v>767302</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>121832</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42989</v>
       </c>
       <c r="D8">
-        <v>24366.400000000001</v>
+        <v>272459</v>
       </c>
       <c r="E8">
-        <v>146198</v>
-      </c>
-      <c r="F8" t="s">
+        <v>54491.8</v>
+      </c>
+      <c r="F8">
+        <v>326951</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>42949</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>328251</v>
+        <v>756474</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42997</v>
+      </c>
+      <c r="D9">
+        <v>223935</v>
+      </c>
+      <c r="E9">
+        <v>44787</v>
+      </c>
+      <c r="F9">
+        <v>268722</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C9">
-        <v>108660</v>
-      </c>
-      <c r="D9">
-        <v>21732</v>
-      </c>
-      <c r="E9">
-        <v>130392</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>42985</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>403864</v>
+        <v>189032</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42995</v>
+      </c>
+      <c r="D10">
+        <v>93494</v>
+      </c>
+      <c r="E10">
+        <v>18698.8</v>
+      </c>
+      <c r="F10">
+        <v>112193</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>151775</v>
-      </c>
-      <c r="D10">
-        <v>30355</v>
-      </c>
-      <c r="E10">
-        <v>182130</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>43030</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>217918</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43036</v>
+      </c>
+      <c r="D11">
+        <v>4356</v>
+      </c>
+      <c r="E11">
+        <v>871.2</v>
+      </c>
+      <c r="F11">
+        <v>5227.2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>698288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43080</v>
+      </c>
+      <c r="D12">
+        <v>97046</v>
+      </c>
+      <c r="E12">
+        <v>19409.2</v>
+      </c>
+      <c r="F12">
+        <v>116455</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>980710</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43094</v>
+      </c>
+      <c r="D13">
+        <v>297036</v>
+      </c>
+      <c r="E13">
+        <v>59407.199999999997</v>
+      </c>
+      <c r="F13">
+        <v>356443</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
